--- a/2020-02-07-Plan-Project-HR-Admin.xlsx
+++ b/2020-02-07-Plan-Project-HR-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A99357-3388-4271-B4ED-583B47A82F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7BDF24-86C7-440F-9891-D06667068531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,29 +319,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4.2.1 Attendance         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  *เหลือการเช็คการลาซ้ำแบบรายชั่วโมง     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
+    <t xml:space="preserve">4.2.1 Attendance                         </t>
   </si>
 </sst>
 </file>
@@ -3463,7 +3441,7 @@
   <dimension ref="A1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6900,7 +6878,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F27" s="84">
         <f>G25</f>
@@ -6913,14 +6891,16 @@
       <c r="H27" s="73">
         <v>5</v>
       </c>
-      <c r="I27" s="84"/>
+      <c r="I27" s="84">
+        <v>43873</v>
+      </c>
       <c r="J27" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K27" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="10"/>
@@ -7790,7 +7770,7 @@
       <c r="I37" s="105"/>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7960,7 +7940,7 @@
       <c r="I39" s="99"/>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8129,7 +8109,7 @@
       <c r="I41" s="94"/>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8298,7 +8278,7 @@
       <c r="I43" s="94"/>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8453,7 +8433,7 @@
         <v>54</v>
       </c>
       <c r="E45" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="57">
         <f>F44</f>
@@ -8466,14 +8446,16 @@
       <c r="H45" s="54">
         <v>7</v>
       </c>
-      <c r="I45" s="94"/>
+      <c r="I45" s="99">
+        <v>43873</v>
+      </c>
       <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L45" s="108"/>
       <c r="M45" s="35"/>
@@ -8541,7 +8523,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="55">
         <f>G45</f>
@@ -8557,7 +8539,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>
